--- a/features/android/ServerPage_SymlexVPN.xlsx
+++ b/features/android/ServerPage_SymlexVPN.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2921963E-E7F7-4B5F-9AC5-84DA8466D79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715F825-26B4-4988-8ED9-9B4EF5D43E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Server page" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">Jira Task No: 1419 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -288,6 +285,75 @@
   <si>
     <t>The app should accurately find and display servers by the entered name, handling invalid country names appropriately.</t>
   </si>
+  <si>
+    <t>TC_SYM_SP_013</t>
+  </si>
+  <si>
+    <t>Ensure connection limit is enforced</t>
+  </si>
+  <si>
+    <t>1.The VPN app is installed on three devices.
+2. All devices are set up to connect to the same server.
+3. The PIN for the server is the same on all devices.</t>
+  </si>
+  <si>
+    <t>1. Go to Playstore and install SymlexVPN in the mobile.
+2. Open the installed SymlexVPN Application.
+3. Login with proper credentials
+4. Navigate to the VPN connection page.
+5.  Open the VPN app on Device
+6.  Enter the PIN and attempt to connect to the server.
+7.  Repeat steps 1-2 for Devices 2, 3, and 4.</t>
+  </si>
+  <si>
+    <t>Devices 1, 2, and 3 should connect successfully.</t>
+  </si>
+  <si>
+    <t>TC_SYM_SP_014</t>
+  </si>
+  <si>
+    <t>1.The VPN app is installed on 4 devices.
+2. All devices are set up to connect to the same server.
+3. The PIN for the server is the same on all devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Playstore and install SymlexVPN in the mobile.
+2. Open the installed SymlexVPN Application.
+3. Login with proper credentials
+4. Navigate to the VPN connection page.
+5.  Open the VPN app on Device
+6.  Enter the PIN and attempt to connect to the server.
+7.  Repeat steps 1-2 for Devices 2, 3. </t>
+  </si>
+  <si>
+    <t>Device 4 should not be able to connect.</t>
+  </si>
+  <si>
+    <t>Verify PIN validation</t>
+  </si>
+  <si>
+    <t>1. The VPN app is installed on four devices.
+2. All devices are set up to connect to the same server.
+3. The PIN for the server is different on each device.</t>
+  </si>
+  <si>
+    <t>TC_SYM_SP_015</t>
+  </si>
+  <si>
+    <t>1. Go to Playstore and install SymlexVPN in the mobile.
+2. Open the installed SymlexVPN Application.
+3. Login with proper credentials
+4. Navigate to the VPN connection page.
+5.  Open the VPN app on DeviceOpen the VPN app on Device 1.
+6. Enter a valid PIN and attempt to connect to the server.
+7. Repeat steps 1-2 for Devices 2, 3, and 4 using different valid PINs.</t>
+  </si>
+  <si>
+    <t>All devices should be able to connect successfully.</t>
+  </si>
+  <si>
+    <t>Scenario : Server Page</t>
+  </si>
 </sst>
 </file>
 
@@ -299,12 +365,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -345,6 +405,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -366,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -479,71 +546,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,7 +1125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G19">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites"/>
@@ -1247,8 +1343,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1264,15 +1360,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
+      <c r="A1" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1294,13 +1390,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1323,25 +1419,25 @@
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1364,26 +1460,26 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>8</v>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1406,23 +1502,23 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
@@ -1446,23 +1542,23 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
@@ -1486,23 +1582,23 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
@@ -1526,25 +1622,25 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>33</v>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1566,25 +1662,25 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>30</v>
+      <c r="F9" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1606,25 +1702,25 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>39</v>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1646,25 +1742,25 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>43</v>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1686,25 +1782,25 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>47</v>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1726,25 +1822,25 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>51</v>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1766,25 +1862,25 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>56</v>
+      <c r="F14" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1806,25 +1902,25 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>61</v>
+      <c r="F15" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1845,19 +1941,31 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+    <row r="16" spans="1:26" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1873,14 +1981,26 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+    <row r="17" spans="1:26" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1901,14 +2021,26 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+    <row r="18" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1929,14 +2061,14 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+    <row r="19" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -29150,7 +29282,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}">
